--- a/excel/Machinery_Part/Section14.xlsx
+++ b/excel/Machinery_Part/Section14.xlsx
@@ -34199,8 +34199,8 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Oil seal (oil labyrinth) 1 set  
-      Thrust collar  1 set.</t>
+          <t>or 1set 
+ Spare parts for Super slow steaming ( same as S-1731 ) 1 set</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -34240,7 +34240,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -34375,7 +34375,7 @@
       </c>
       <c r="AJ60" t="inlineStr">
         <is>
-          <t>(-)Thrust &amp; (-)collar</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AK60" t="inlineStr">
@@ -34660,7 +34660,7 @@
       </c>
       <c r="CO60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="CP60" t="inlineStr">
@@ -34712,8 +34712,8 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>or 1set 
- Spare parts for Super slow steaming ( same as S-1731 ) 1 set</t>
+          <t>Oil seal (oil labyrinth) 1 set  
+      Thrust collar  1 set.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -34753,7 +34753,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -34888,7 +34888,7 @@
       </c>
       <c r="AJ61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>(-)Thrust &amp; (-)collar</t>
         </is>
       </c>
       <c r="AK61" t="inlineStr">
@@ -35173,7 +35173,7 @@
       </c>
       <c r="CO61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="CP61" t="inlineStr">
@@ -37302,7 +37302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX11"/>
+  <dimension ref="A1:CX12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42974,6 +42974,518 @@
       <c r="CX11" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Boiler H.F.O./M.G.O burning pump(exclude motor)                      1 3△</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BV12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BY12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BZ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CA12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CB12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CC12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CE12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CF12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CG12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CJ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CK12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CL12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CM12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CN12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CO12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CP12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CR12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CS12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CT12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CU12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CV12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CW12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CX12" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -51201,7 +51713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX37"/>
+  <dimension ref="A1:CX36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65569,7 +66081,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>(4) Monros pump.</t>
+          <t>Piston ring 2 
+Valve and valve seat 4 sets 
+Gland packing 1 set 
+Safety valve spring 1 
+V belt 2.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -65589,7 +66105,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>(+)5 &amp; (-)4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -65604,7 +66120,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(+)5 &amp; (-)4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -65689,7 +66205,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>(+)5 &amp; (-)4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -65739,7 +66255,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>(+)5 &amp; (-)4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
@@ -65754,7 +66270,7 @@
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>(+)5 &amp; (-)4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
@@ -65764,7 +66280,7 @@
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>(+)5 &amp; (-)4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
@@ -65784,7 +66300,7 @@
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>(+)5 &amp; (-)4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
@@ -65824,7 +66340,7 @@
       </c>
       <c r="AZ29" t="inlineStr">
         <is>
-          <t>(+)5 &amp; (-)4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BA29" t="inlineStr">
@@ -65834,7 +66350,7 @@
       </c>
       <c r="BB29" t="inlineStr">
         <is>
-          <t>(+)5 &amp; (-)4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BC29" t="inlineStr">
@@ -65879,7 +66395,7 @@
       </c>
       <c r="BK29" t="inlineStr">
         <is>
-          <t>(+)5 &amp; (-)4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BL29" t="inlineStr">
@@ -65899,7 +66415,7 @@
       </c>
       <c r="BO29" t="inlineStr">
         <is>
-          <t>(+)5 &amp; (-)4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="BP29" t="inlineStr">
@@ -65964,7 +66480,7 @@
       </c>
       <c r="CB29" t="inlineStr">
         <is>
-          <t>(+)5 &amp; (-)4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="CC29" t="inlineStr">
@@ -65979,7 +66495,7 @@
       </c>
       <c r="CE29" t="inlineStr">
         <is>
-          <t>(+)5 &amp; (-)4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="CF29" t="inlineStr">
@@ -66019,7 +66535,7 @@
       </c>
       <c r="CM29" t="inlineStr">
         <is>
-          <t>(+)5 &amp; (-)4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="CN29" t="inlineStr">
@@ -66039,7 +66555,7 @@
       </c>
       <c r="CQ29" t="inlineStr">
         <is>
-          <t>(+)5 &amp; (-)4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="CR29" t="inlineStr">
@@ -66081,12 +66597,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Piston ring 2 
-Valve 4 sets 
-Gland packing 1 set 
-Safety valve spring 1 
-V belt 2 
-Valve seat 1.</t>
+          <t>(4) Monros pump.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -66106,7 +66617,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)5 &amp; (-)4</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -66121,7 +66632,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)5 &amp; (-)4</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -66206,7 +66717,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)5 &amp; (-)4</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -66256,7 +66767,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)5 &amp; (-)4</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -66271,7 +66782,7 @@
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)5 &amp; (-)4</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
@@ -66281,7 +66792,7 @@
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)5 &amp; (-)4</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
@@ -66301,7 +66812,7 @@
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)5 &amp; (-)4</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
@@ -66341,7 +66852,7 @@
       </c>
       <c r="AZ30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)5 &amp; (-)4</t>
         </is>
       </c>
       <c r="BA30" t="inlineStr">
@@ -66351,7 +66862,7 @@
       </c>
       <c r="BB30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)5 &amp; (-)4</t>
         </is>
       </c>
       <c r="BC30" t="inlineStr">
@@ -66396,7 +66907,7 @@
       </c>
       <c r="BK30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)5 &amp; (-)4</t>
         </is>
       </c>
       <c r="BL30" t="inlineStr">
@@ -66416,7 +66927,7 @@
       </c>
       <c r="BO30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)5 &amp; (-)4</t>
         </is>
       </c>
       <c r="BP30" t="inlineStr">
@@ -66481,7 +66992,7 @@
       </c>
       <c r="CB30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)5 &amp; (-)4</t>
         </is>
       </c>
       <c r="CC30" t="inlineStr">
@@ -66496,7 +67007,7 @@
       </c>
       <c r="CE30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)5 &amp; (-)4</t>
         </is>
       </c>
       <c r="CF30" t="inlineStr">
@@ -66536,7 +67047,7 @@
       </c>
       <c r="CM30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)5 &amp; (-)4</t>
         </is>
       </c>
       <c r="CN30" t="inlineStr">
@@ -66556,7 +67067,7 @@
       </c>
       <c r="CQ30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>(+)5 &amp; (-)4</t>
         </is>
       </c>
       <c r="CR30" t="inlineStr">
@@ -66597,6 +67108,1031 @@
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
+        <is>
+          <t>For Sludge pump (1 set) and Gray water discharge pump (1 set).</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BA31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BC31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BE31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BK31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BL31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BM31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BP31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BS31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT31" t="inlineStr">
+        <is>
+          <t>(+)Bilge &amp; (-)Sludge</t>
+        </is>
+      </c>
+      <c r="BU31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BV31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BY31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BZ31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CA31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CB31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CC31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CE31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CF31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CG31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CH31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CI31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CJ31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CK31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CL31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CM31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CN31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CO31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CP31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CQ31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CR31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CS31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CT31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CU31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CV31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CW31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CX31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>pump (2 sets) and Emergency MDO 
+pump (1set).</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>(+)3 &amp; (+)High &amp; (+)temp &amp; (-)2 &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>(+)3 &amp; (+)High &amp; (+)temp &amp; (-)2 &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>(+)Back &amp; (+)air &amp; (+)comp &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AE32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AF32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AR32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>(+)3 &amp; (+)High &amp; (+)temp &amp; (-)2 &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AU32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AV32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="AZ32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BA32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BB32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BC32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BD32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BE32" t="inlineStr">
+        <is>
+          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BF32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BG32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BH32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BI32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BJ32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BK32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BL32" t="inlineStr">
+        <is>
+          <t>(+)1 &amp; (+)set &amp; (+)M.D.O &amp; (-)2 &amp; (-)sets &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BM32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BN32" t="inlineStr">
+        <is>
+          <t>(+)3 &amp; (+)High &amp; (+)temp &amp; (-)2 &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BO32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BP32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BQ32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BS32" t="inlineStr">
+        <is>
+          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BT32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BU32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BV32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BW32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BX32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BY32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="BZ32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CA32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CB32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CC32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CD32" t="inlineStr">
+        <is>
+          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CE32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CF32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CG32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CH32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CI32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CJ32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CK32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CL32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CM32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CN32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CO32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CP32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CQ32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CR32" t="inlineStr">
+        <is>
+          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CS32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CT32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CU32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CV32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CW32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+      <c r="CX32" t="inlineStr">
+        <is>
+          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Ball bearing 1 
 Safety valve spring 1 
@@ -66605,1502 +68141,474 @@
 Coupling bush 1 set.</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>(-)“ &amp; (-)”</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI31" t="inlineStr">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI33" t="inlineStr">
         <is>
           <t>(-)“ &amp; (-)”</t>
         </is>
       </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL31" t="inlineStr">
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AL33" t="inlineStr">
         <is>
           <t>(-)“ &amp; (-)”</t>
         </is>
       </c>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN31" t="inlineStr">
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN33" t="inlineStr">
         <is>
           <t>(-)“ &amp; (-)”</t>
         </is>
       </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR33" t="inlineStr">
         <is>
           <t>(-)“ &amp; (-)”</t>
         </is>
       </c>
-      <c r="AS31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AT31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AU31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AV31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AW31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AX31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AZ31" t="inlineStr">
+      <c r="AS33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AU33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AV33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AZ33" t="inlineStr">
         <is>
           <t>(-)“ &amp; (-)”</t>
         </is>
       </c>
-      <c r="BA31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BB31" t="inlineStr">
+      <c r="BA33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BB33" t="inlineStr">
         <is>
           <t>(-)“ &amp; (-)”</t>
         </is>
       </c>
-      <c r="BC31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BD31" t="inlineStr">
+      <c r="BC33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BD33" t="inlineStr">
         <is>
           <t>(-)“ &amp; (-)”</t>
         </is>
       </c>
-      <c r="BE31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BG31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BI31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BJ31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BK31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BL31" t="inlineStr">
+      <c r="BE33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BF33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BG33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BH33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BI33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BJ33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BK33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BL33" t="inlineStr">
         <is>
           <t>(-)“ &amp; (-)”</t>
         </is>
       </c>
-      <c r="BM31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BN31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BO31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BP31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BQ31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BR31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BS31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BT31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BU31" t="inlineStr">
+      <c r="BM33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BN33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BO33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BP33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BQ33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BS33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BT33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BU33" t="inlineStr">
         <is>
           <t>(-)“ &amp; (-)”</t>
         </is>
       </c>
-      <c r="BV31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BW31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BX31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BY31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BZ31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CA31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CB31" t="inlineStr">
+      <c r="BV33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BW33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BX33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BY33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="BZ33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CA33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CB33" t="inlineStr">
         <is>
           <t>(-)“ &amp; (-)”</t>
         </is>
       </c>
-      <c r="CC31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CD31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CE31" t="inlineStr">
+      <c r="CC33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CD33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CE33" t="inlineStr">
         <is>
           <t>(+)mechanical &amp; (-)Mechanical &amp; (-)“ &amp; (-)”</t>
         </is>
       </c>
-      <c r="CF31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CG31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CH31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CI31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CJ31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CK31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CL31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CM31" t="inlineStr">
+      <c r="CF33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CG33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CH33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CI33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CJ33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CK33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CL33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CM33" t="inlineStr">
         <is>
           <t>(-)“ &amp; (-)”</t>
         </is>
       </c>
-      <c r="CN31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CO31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CP31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CQ31" t="inlineStr">
+      <c r="CN33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CO33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CP33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="CQ33" t="inlineStr">
         <is>
           <t>(+)mechanical &amp; (-)Mechanical &amp; (-)“ &amp; (-)”</t>
-        </is>
-      </c>
-      <c r="CR31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CS31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CT31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CU31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CV31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CW31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CX31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Piston ring 2 
-Valve and valve seat 4 sets 
-Gland packing 1 set 
-Safety valve spring 1 
-V belt 2.</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AD32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AG32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AI32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AN32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AP32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AQ32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AR32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AS32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AT32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AU32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AV32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AW32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AX32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AY32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AZ32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BA32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BB32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BC32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BD32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BE32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BG32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BI32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BJ32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BK32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BL32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BM32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BN32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BO32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BP32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BQ32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BR32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BS32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BT32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BU32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BV32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BW32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BX32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BY32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BZ32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CA32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CB32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CC32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CD32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CE32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CF32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CG32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CH32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CI32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CJ32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CK32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CL32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CM32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CN32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CO32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CP32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CQ32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CR32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CS32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CT32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CU32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CV32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CW32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CX32" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>For Sludge pump (1 set) and Gray water discharge pump (1 set).</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AN33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AS33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AT33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AU33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AV33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AW33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AX33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AY33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AZ33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BA33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BB33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BC33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BD33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BE33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BF33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BG33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BH33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BI33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BJ33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BK33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BL33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BM33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BN33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BO33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BP33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BQ33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BR33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BS33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BT33" t="inlineStr">
-        <is>
-          <t>(+)Bilge &amp; (-)Sludge</t>
-        </is>
-      </c>
-      <c r="BU33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BV33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BW33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BX33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BY33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="BZ33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CA33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CB33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CC33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CD33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CE33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CF33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CG33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CH33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CI33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CJ33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CK33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CL33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CM33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CN33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CO33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CP33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CQ33" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="CR33" t="inlineStr">
@@ -68141,519 +68649,6 @@
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
-        <is>
-          <t>pump (2 sets) and Emergency MDO 
-pump (1set).</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>(+)3 &amp; (+)High &amp; (+)temp &amp; (-)2 &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>(+)3 &amp; (+)High &amp; (+)temp &amp; (-)2 &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>(+)Back &amp; (+)air &amp; (+)comp &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AA34" t="inlineStr">
-        <is>
-          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AD34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AE34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AF34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AG34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AI34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AL34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AN34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AP34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AQ34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AR34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AS34" t="inlineStr">
-        <is>
-          <t>(+)3 &amp; (+)High &amp; (+)temp &amp; (-)2 &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AT34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AU34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AV34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AW34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AX34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AY34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="AZ34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BA34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BB34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BC34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BD34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BE34" t="inlineStr">
-        <is>
-          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BF34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BG34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BH34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BI34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BJ34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BK34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BL34" t="inlineStr">
-        <is>
-          <t>(+)1 &amp; (+)set &amp; (+)M.D.O &amp; (-)2 &amp; (-)sets &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BM34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BN34" t="inlineStr">
-        <is>
-          <t>(+)3 &amp; (+)High &amp; (+)temp &amp; (-)2 &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BO34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BP34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BQ34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BR34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BS34" t="inlineStr">
-        <is>
-          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BT34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BU34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BV34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BW34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BX34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BY34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="BZ34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CA34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CB34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CC34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CD34" t="inlineStr">
-        <is>
-          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CE34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CF34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CG34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CH34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CI34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CJ34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CK34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CL34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CM34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CN34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CO34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CP34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CQ34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CR34" t="inlineStr">
-        <is>
-          <t>(+)1 &amp; (+)set &amp; (+)Boiler &amp; (+)F.O &amp; (+)booster &amp; (+)1 &amp; (+)set &amp; (-)2 &amp; (-)sets &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CS34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CT34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CU34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CV34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CW34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-      <c r="CX34" t="inlineStr">
-        <is>
-          <t>(+)Jacket &amp; (+)cooling &amp; (+)F.W &amp; (-)Emergency &amp; (-)MDO &amp; (-)1set</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
         <is>
           <t>Ball bearing 1 
 Safety valve spring 1 
@@ -68663,1026 +68658,514 @@
 Stator 1.</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>(-)Stator</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>(-)Stator</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>(-)Stator</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>(+)2. &amp; (+)D/G &amp; (+)L.O &amp; (-)2 &amp; (-)Stator</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="U35" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="V35" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr">
+      <c r="W34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="X35" t="inlineStr">
+      <c r="X34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr">
+      <c r="Y34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
+      <c r="Z34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AA35" t="inlineStr">
+      <c r="AA34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AB35" t="inlineStr">
+      <c r="AB34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr">
+      <c r="AC34" t="inlineStr">
         <is>
           <t>(-)Stator</t>
         </is>
       </c>
-      <c r="AD35" t="inlineStr">
+      <c r="AD34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AE35" t="inlineStr">
+      <c r="AE34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AF35" t="inlineStr">
+      <c r="AF34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AG35" t="inlineStr">
+      <c r="AG34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AH35" t="inlineStr">
+      <c r="AH34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AI35" t="inlineStr">
+      <c r="AI34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AJ35" t="inlineStr">
+      <c r="AJ34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AK35" t="inlineStr">
+      <c r="AK34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AL35" t="inlineStr">
+      <c r="AL34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AM35" t="inlineStr">
+      <c r="AM34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AN35" t="inlineStr">
+      <c r="AN34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AO35" t="inlineStr">
+      <c r="AO34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AP35" t="inlineStr">
+      <c r="AP34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AQ35" t="inlineStr">
+      <c r="AQ34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AS35" t="inlineStr">
+      <c r="AR34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AS34" t="inlineStr">
         <is>
           <t>(-)Stator</t>
         </is>
       </c>
-      <c r="AT35" t="inlineStr">
+      <c r="AT34" t="inlineStr">
         <is>
           <t>(-)Stator</t>
         </is>
       </c>
-      <c r="AU35" t="inlineStr">
+      <c r="AU34" t="inlineStr">
         <is>
           <t>(+)2. &amp; (+)D/G &amp; (+)L.O &amp; (-)2 &amp; (-)Stator</t>
         </is>
       </c>
-      <c r="AV35" t="inlineStr">
+      <c r="AV34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AW35" t="inlineStr">
+      <c r="AW34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AX35" t="inlineStr">
+      <c r="AX34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AY35" t="inlineStr">
+      <c r="AY34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="AZ35" t="inlineStr">
+      <c r="AZ34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BA35" t="inlineStr">
+      <c r="BA34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BB35" t="inlineStr">
+      <c r="BB34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BC35" t="inlineStr">
+      <c r="BC34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BD35" t="inlineStr">
+      <c r="BD34" t="inlineStr">
         <is>
           <t>(-)Stator</t>
         </is>
       </c>
-      <c r="BE35" t="inlineStr">
+      <c r="BE34" t="inlineStr">
         <is>
           <t>(-)Stator</t>
         </is>
       </c>
-      <c r="BF35" t="inlineStr">
+      <c r="BF34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BG35" t="inlineStr">
+      <c r="BG34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BH35" t="inlineStr">
+      <c r="BH34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BI35" t="inlineStr">
+      <c r="BI34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BJ35" t="inlineStr">
+      <c r="BJ34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BK35" t="inlineStr">
+      <c r="BK34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BL35" t="inlineStr">
+      <c r="BL34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BM35" t="inlineStr">
+      <c r="BM34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BN35" t="inlineStr">
+      <c r="BN34" t="inlineStr">
         <is>
           <t>(-)Stator</t>
         </is>
       </c>
-      <c r="BO35" t="inlineStr">
+      <c r="BO34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BP35" t="inlineStr">
+      <c r="BP34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BQ35" t="inlineStr">
+      <c r="BQ34" t="inlineStr">
         <is>
           <t>(-)Stator</t>
         </is>
       </c>
-      <c r="BR35" t="inlineStr">
+      <c r="BR34" t="inlineStr">
         <is>
           <t>(+)2. &amp; (+)L.O &amp; (-)2 &amp; (-)Stator</t>
         </is>
       </c>
-      <c r="BS35" t="inlineStr">
+      <c r="BS34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BT35" t="inlineStr">
+      <c r="BT34" t="inlineStr">
         <is>
           <t>(-)Stator</t>
         </is>
       </c>
-      <c r="BU35" t="inlineStr">
+      <c r="BU34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BV35" t="inlineStr">
+      <c r="BV34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BW35" t="inlineStr">
+      <c r="BW34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BX35" t="inlineStr">
+      <c r="BX34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BY35" t="inlineStr">
+      <c r="BY34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="BZ35" t="inlineStr">
+      <c r="BZ34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CA35" t="inlineStr">
+      <c r="CA34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CB35" t="inlineStr">
+      <c r="CB34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CC35" t="inlineStr">
+      <c r="CC34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CD35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CE35" t="inlineStr">
+      <c r="CD34" t="inlineStr">
+        <is>
+          <t>(+)2. &amp; (+)recovering△1 &amp; (-)2 &amp; (-)Stator &amp; (-).</t>
+        </is>
+      </c>
+      <c r="CE34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CF35" t="inlineStr">
+      <c r="CF34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CG35" t="inlineStr">
+      <c r="CG34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CH35" t="inlineStr">
+      <c r="CH34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CI35" t="inlineStr">
+      <c r="CI34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CJ35" t="inlineStr">
+      <c r="CJ34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CK35" t="inlineStr">
+      <c r="CK34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CL35" t="inlineStr">
+      <c r="CL34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CM35" t="inlineStr">
+      <c r="CM34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CN35" t="inlineStr">
+      <c r="CN34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CO35" t="inlineStr">
+      <c r="CO34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CP35" t="inlineStr">
+      <c r="CP34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CQ35" t="inlineStr">
+      <c r="CQ34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CR35" t="inlineStr">
+      <c r="CR34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CS35" t="inlineStr">
+      <c r="CS34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CT35" t="inlineStr">
+      <c r="CT34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CU35" t="inlineStr">
+      <c r="CU34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CV35" t="inlineStr">
+      <c r="CV34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CW35" t="inlineStr">
+      <c r="CW34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
-      <c r="CX35" t="inlineStr">
+      <c r="CX34" t="inlineStr">
         <is>
           <t>(-)Stator &amp; (-).</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>supply pump (1 set), F.O. boost.</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>(+)transfer &amp; (-)supply</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>(-)supply</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>(-), &amp; (-)F.O &amp; (-)boost</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>(+)transfer &amp; (-)supply</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>(-), &amp; (-)F.O &amp; (-)boost</t>
-        </is>
-      </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AD36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="AE36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="AF36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="AG36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AI36" t="inlineStr">
-        <is>
-          <t>(+)D/G &amp; (+)L.O &amp; (-), &amp; (-)F.O &amp; (-)boost</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AL36" t="inlineStr">
-        <is>
-          <t>(-), &amp; (-)F.O &amp; (-)boost</t>
-        </is>
-      </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AN36" t="inlineStr">
-        <is>
-          <t>(-)supply</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AP36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="AQ36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AR36" t="inlineStr">
-        <is>
-          <t>(-)supply</t>
-        </is>
-      </c>
-      <c r="AS36" t="inlineStr">
-        <is>
-          <t>(+)transfer &amp; (-)supply</t>
-        </is>
-      </c>
-      <c r="AT36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AU36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AV36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="AW36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AX36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AY36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="AZ36" t="inlineStr">
-        <is>
-          <t>(-)supply</t>
-        </is>
-      </c>
-      <c r="BA36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BB36" t="inlineStr">
-        <is>
-          <t>(-)supply</t>
-        </is>
-      </c>
-      <c r="BC36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BD36" t="inlineStr">
-        <is>
-          <t>(-)supply</t>
-        </is>
-      </c>
-      <c r="BE36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BF36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="BG36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="BH36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BI36" t="inlineStr">
-        <is>
-          <t>(-)supply</t>
-        </is>
-      </c>
-      <c r="BJ36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BK36" t="inlineStr">
-        <is>
-          <t>(+)S/T &amp; (+)L.O &amp; (-)F.O &amp; (-)boost</t>
-        </is>
-      </c>
-      <c r="BL36" t="inlineStr">
-        <is>
-          <t>(-)supply</t>
-        </is>
-      </c>
-      <c r="BM36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BN36" t="inlineStr">
-        <is>
-          <t>(+)transfer &amp; (-)supply</t>
-        </is>
-      </c>
-      <c r="BO36" t="inlineStr">
-        <is>
-          <t>(+)S/T &amp; (+)L.O &amp; (-)F.O &amp; (-)boost</t>
-        </is>
-      </c>
-      <c r="BP36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="BQ36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="BR36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BS36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BT36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="BU36" t="inlineStr">
-        <is>
-          <t>(-)supply</t>
-        </is>
-      </c>
-      <c r="BV36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="BW36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BX36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="BY36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BZ36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CA36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CB36" t="inlineStr">
-        <is>
-          <t>(-)supply</t>
-        </is>
-      </c>
-      <c r="CC36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="CD36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CE36" t="inlineStr">
-        <is>
-          <t>(-)supply</t>
-        </is>
-      </c>
-      <c r="CF36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="CG36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CH36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CI36" t="inlineStr">
-        <is>
-          <t>(+)1set &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="CJ36" t="inlineStr">
-        <is>
-          <t>(-)supply</t>
-        </is>
-      </c>
-      <c r="CK36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="CL36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CM36" t="inlineStr">
-        <is>
-          <t>(-)supply</t>
-        </is>
-      </c>
-      <c r="CN36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="CO36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CP36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CQ36" t="inlineStr">
-        <is>
-          <t>(-)supply</t>
-        </is>
-      </c>
-      <c r="CR36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CS36" t="inlineStr">
-        <is>
-          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
-        </is>
-      </c>
-      <c r="CT36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CU36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CV36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CW36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CX36" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Ball bearing 1 
 Safety valve spring 1 
@@ -69691,507 +69174,1019 @@
 V belt 2</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>(+).</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>(+)Stator &amp; (+).</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>(+).</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>(+).</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
         <is>
           <t>(+)2. &amp; (+)D/G &amp; (+)L.O &amp; (+). &amp; (-)2</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
         <is>
           <t>(+).</t>
         </is>
       </c>
-      <c r="AD37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AG37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AI37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AL37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AN37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AP37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AQ37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AQ35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR35" t="inlineStr">
         <is>
           <t>(+)Stator &amp; (+).</t>
         </is>
       </c>
-      <c r="AS37" t="inlineStr">
+      <c r="AS35" t="inlineStr">
         <is>
           <t>(+).</t>
         </is>
       </c>
-      <c r="AT37" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>(+).</t>
         </is>
       </c>
-      <c r="AU37" t="inlineStr">
+      <c r="AU35" t="inlineStr">
         <is>
           <t>(+)2. &amp; (+)D/G &amp; (+)L.O &amp; (+). &amp; (-)2</t>
         </is>
       </c>
-      <c r="AV37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AW37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AX37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AY37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AZ37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BA37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BB37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BC37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BD37" t="inlineStr">
+      <c r="AV35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AZ35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BA35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BB35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BC35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BD35" t="inlineStr">
         <is>
           <t>(+).</t>
         </is>
       </c>
-      <c r="BE37" t="inlineStr">
+      <c r="BE35" t="inlineStr">
         <is>
           <t>(+).</t>
         </is>
       </c>
-      <c r="BF37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BG37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BH37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BI37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BJ37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BK37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BL37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BM37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BN37" t="inlineStr">
+      <c r="BF35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BG35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BH35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BI35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BJ35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BL35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BM35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BN35" t="inlineStr">
         <is>
           <t>(+).</t>
         </is>
       </c>
-      <c r="BO37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BP37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BQ37" t="inlineStr">
+      <c r="BO35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BP35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BQ35" t="inlineStr">
         <is>
           <t>(+).</t>
         </is>
       </c>
-      <c r="BR37" t="inlineStr">
+      <c r="BR35" t="inlineStr">
         <is>
           <t>(+)2. &amp; (+)L.O &amp; (+). &amp; (-)2</t>
         </is>
       </c>
-      <c r="BS37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BT37" t="inlineStr">
+      <c r="BS35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BT35" t="inlineStr">
         <is>
           <t>(+).</t>
         </is>
       </c>
-      <c r="BU37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BV37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BW37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BX37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BY37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BZ37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CA37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CB37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CC37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CD37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="CE37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CF37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CG37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CH37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CI37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CJ37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CK37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CL37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CM37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CN37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CO37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CP37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CQ37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CR37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CS37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CT37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CU37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CV37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CW37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="CX37" t="inlineStr">
+      <c r="BU35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BV35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BW35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BX35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BY35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BZ35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CA35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CC35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CD35" t="inlineStr">
+        <is>
+          <t>(+)2. &amp; (+)recovering△1 &amp; (-)2</t>
+        </is>
+      </c>
+      <c r="CE35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CF35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CG35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CH35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CI35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CJ35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CK35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CL35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CM35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CN35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CO35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CP35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CQ35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CR35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CS35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CT35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CU35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CV35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CW35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CX35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>supply pump (1 set), F.O. boost.</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>(+)transfer &amp; (-)supply</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>(-)supply</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(-), &amp; (-)F.O &amp; (-)boost</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>(+)transfer &amp; (-)supply</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>(-), &amp; (-)F.O &amp; (-)boost</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="AE36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="AF36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>(+)D/G &amp; (+)L.O &amp; (-), &amp; (-)F.O &amp; (-)boost</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>(-), &amp; (-)F.O &amp; (-)boost</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>(-)supply</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR36" t="inlineStr">
+        <is>
+          <t>(-)supply</t>
+        </is>
+      </c>
+      <c r="AS36" t="inlineStr">
+        <is>
+          <t>(+)transfer &amp; (-)supply</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AU36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AV36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="AZ36" t="inlineStr">
+        <is>
+          <t>(-)supply</t>
+        </is>
+      </c>
+      <c r="BA36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BB36" t="inlineStr">
+        <is>
+          <t>(-)supply</t>
+        </is>
+      </c>
+      <c r="BC36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BD36" t="inlineStr">
+        <is>
+          <t>(-)supply</t>
+        </is>
+      </c>
+      <c r="BE36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BF36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="BG36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="BH36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BI36" t="inlineStr">
+        <is>
+          <t>(-)supply</t>
+        </is>
+      </c>
+      <c r="BJ36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BK36" t="inlineStr">
+        <is>
+          <t>(+)S/T &amp; (+)L.O &amp; (-)F.O &amp; (-)boost</t>
+        </is>
+      </c>
+      <c r="BL36" t="inlineStr">
+        <is>
+          <t>(-)supply</t>
+        </is>
+      </c>
+      <c r="BM36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BN36" t="inlineStr">
+        <is>
+          <t>(+)transfer &amp; (-)supply</t>
+        </is>
+      </c>
+      <c r="BO36" t="inlineStr">
+        <is>
+          <t>(+)S/T &amp; (+)L.O &amp; (-)F.O &amp; (-)boost</t>
+        </is>
+      </c>
+      <c r="BP36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="BQ36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BS36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BT36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="BU36" t="inlineStr">
+        <is>
+          <t>(-)supply</t>
+        </is>
+      </c>
+      <c r="BV36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="BW36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BX36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="BY36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BZ36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CA36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CB36" t="inlineStr">
+        <is>
+          <t>(-)supply</t>
+        </is>
+      </c>
+      <c r="CC36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="CD36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CE36" t="inlineStr">
+        <is>
+          <t>(-)supply</t>
+        </is>
+      </c>
+      <c r="CF36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="CG36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CH36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CI36" t="inlineStr">
+        <is>
+          <t>(+)1set &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="CJ36" t="inlineStr">
+        <is>
+          <t>(-)supply</t>
+        </is>
+      </c>
+      <c r="CK36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="CL36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CM36" t="inlineStr">
+        <is>
+          <t>(-)supply</t>
+        </is>
+      </c>
+      <c r="CN36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="CO36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CP36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CQ36" t="inlineStr">
+        <is>
+          <t>(-)supply</t>
+        </is>
+      </c>
+      <c r="CR36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CS36" t="inlineStr">
+        <is>
+          <t>(+)2 &amp; (+)sets &amp; (-)supply &amp; (-)1 &amp; (-)set</t>
+        </is>
+      </c>
+      <c r="CT36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CU36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CV36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CW36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="CX36" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -82081,422 +82076,422 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>(+)pressure &amp; (+)gauge &amp; (+)set4△ &amp; (-)M15 &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(+)301△ &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>(+)P-107 &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>(+)P-107 &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Z5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>(+)MAIN &amp; (+)&amp; &amp; (+)BACK &amp; (+)UP1△ &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>(+)MAIN &amp; (+)&amp; &amp; (+)BACK &amp; (+)UP1△ &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>(+)pressure &amp; (+)gauge &amp; (+)set4△ &amp; (-)M15 &amp; (-)-</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AO5" t="inlineStr">
+      <c r="AU5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AW5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AX5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AY5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr">
+      <c r="AZ5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AV5" t="inlineStr">
+      <c r="BA5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AW5" t="inlineStr">
+      <c r="BB5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AX5" t="inlineStr">
+      <c r="BC5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AY5" t="inlineStr">
+      <c r="BD5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="AZ5" t="inlineStr">
+      <c r="BE5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BA5" t="inlineStr">
+      <c r="BF5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr">
+      <c r="BG5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BC5" t="inlineStr">
+      <c r="BH5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BD5" t="inlineStr">
+      <c r="BI5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BE5" t="inlineStr">
+      <c r="BJ5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr">
+      <c r="BK5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BG5" t="inlineStr">
+      <c r="BL5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BH5" t="inlineStr">
+      <c r="BM5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BI5" t="inlineStr">
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BJ5" t="inlineStr">
+      <c r="BP5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BK5" t="inlineStr">
+      <c r="BQ5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BL5" t="inlineStr">
+      <c r="BR5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BM5" t="inlineStr">
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>(+)MAIN &amp; (+)&amp; &amp; (+)BACK &amp; (+)UP1△ &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BN5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BO5" t="inlineStr">
+      <c r="BU5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BP5" t="inlineStr">
+      <c r="BV5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BQ5" t="inlineStr">
+      <c r="BW5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BR5" t="inlineStr">
+      <c r="BX5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BS5" t="inlineStr">
+      <c r="BY5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BT5" t="inlineStr">
+      <c r="BZ5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BU5" t="inlineStr">
+      <c r="CA5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BV5" t="inlineStr">
+      <c r="CB5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BW5" t="inlineStr">
+      <c r="CC5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BX5" t="inlineStr">
+      <c r="CD5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BY5" t="inlineStr">
+      <c r="CE5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="BZ5" t="inlineStr">
+      <c r="CF5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="CA5" t="inlineStr">
+      <c r="CG5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="CB5" t="inlineStr">
+      <c r="CH5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="CC5" t="inlineStr">
+      <c r="CI5" t="inlineStr">
         <is>
           <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
-      <c r="CD5" t="inlineStr">
-        <is>
-          <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
-        </is>
-      </c>
-      <c r="CE5" t="inlineStr">
-        <is>
-          <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
-        </is>
-      </c>
-      <c r="CF5" t="inlineStr">
-        <is>
-          <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
-        </is>
-      </c>
-      <c r="CG5" t="inlineStr">
-        <is>
-          <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
-        </is>
-      </c>
-      <c r="CH5" t="inlineStr">
-        <is>
-          <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
-        </is>
-      </c>
-      <c r="CI5" t="inlineStr">
-        <is>
-          <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
-        </is>
-      </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>(+)14.9 &amp; (+)OTHER &amp; (+)MACHINERY &amp; (+). &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
+          <t>(+)△4 &amp; (+)△4 &amp; (-)M15 &amp; (-)- &amp; (-)1</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
